--- a/2 курс 2 семестр/БД/П50-4-21 Игошев Р.В. Практические работа №1.xlsx
+++ b/2 курс 2 семестр/БД/П50-4-21 Игошев Р.В. Практические работа №1.xlsx
@@ -291,11 +291,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,29 +603,29 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="N2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="9"/>
       <c r="R2" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,10 +635,10 @@
       <c r="T2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="9"/>
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
@@ -1562,18 +1562,18 @@
       </c>
     </row>
     <row r="41" spans="18:27" x14ac:dyDescent="0.35">
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
     </row>
     <row r="42" spans="18:27" x14ac:dyDescent="0.35">
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
